--- a/script/af gastos 2013 11 - Copy.xlsx
+++ b/script/af gastos 2013 11 - Copy.xlsx
@@ -2015,10 +2015,10 @@
   <dimension ref="A1:T596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="M81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C116" sqref="C112:C116"/>
+      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25"/>
@@ -6788,24 +6788,18 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="4">
-        <v>0.36858383647147003</v>
-      </c>
-      <c r="O81" s="13" t="e">
-        <f>LEFT(#REF!,2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4">
-        <v>0</v>
-      </c>
-      <c r="R81" s="4">
-        <v>61.168574967847</v>
-      </c>
-      <c r="S81" s="4">
-        <v>1</v>
-      </c>
-      <c r="T81" s="1"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="4">
+        <f>SUM(Q80:Q80)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:20" ht="24.75" customHeight="1">
       <c r="A82" s="2"/>
@@ -6833,15 +6827,26 @@
       <c r="M82" s="5">
         <v>243611.89708858001</v>
       </c>
-      <c r="N82" s="4"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="4">
-        <f>SUM(Q80:Q81)</f>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
+      <c r="N82" s="5">
+        <v>1454.2894671105</v>
+      </c>
+      <c r="O82" s="13" t="str">
+        <f t="shared" ref="O82" si="4">LEFT(A82,2)</f>
+        <v/>
+      </c>
+      <c r="P82" s="5">
+        <f>SUM(P3:P81)</f>
+        <v>110.04661139190215</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>747.53821266217994</v>
+      </c>
+      <c r="R82" s="5">
+        <v>245813.72476836</v>
+      </c>
+      <c r="S82" s="11">
+        <v>27701.536448061001</v>
+      </c>
       <c r="T82" s="1">
         <v>0</v>
       </c>
@@ -6862,29 +6867,13 @@
       <c r="K83" s="19"/>
       <c r="L83" s="19"/>
       <c r="M83" s="19"/>
-      <c r="N83" s="5">
-        <v>1454.2894671105</v>
-      </c>
-      <c r="O83" s="13" t="str">
-        <f t="shared" ref="O83" si="4">LEFT(A82,2)</f>
-        <v/>
-      </c>
-      <c r="P83" s="5">
-        <f>SUM(P3:P82)</f>
-        <v>110.04661139190215</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>747.53821266217994</v>
-      </c>
-      <c r="R83" s="5">
-        <v>245813.72476836</v>
-      </c>
-      <c r="S83" s="11">
-        <v>27701.536448061001</v>
-      </c>
-      <c r="T83" s="1">
-        <v>0</v>
-      </c>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="20"/>
     </row>
     <row r="84" spans="1:20" ht="24.75" customHeight="1">
       <c r="A84" s="1" t="s">
@@ -6926,12 +6915,23 @@
       <c r="M84" s="4">
         <v>74317.618580644994</v>
       </c>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
+      <c r="N84" s="4">
+        <v>443.2466907557</v>
+      </c>
+      <c r="O84" s="13" t="str">
+        <f t="shared" ref="O84:O89" si="5">LEFT(A84,2)</f>
+        <v>10</v>
+      </c>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4">
+        <v>0</v>
+      </c>
+      <c r="R84" s="4">
+        <v>74760.865271400995</v>
+      </c>
+      <c r="S84" s="4">
+        <v>1</v>
+      </c>
       <c r="T84" s="1">
         <v>0</v>
       </c>
@@ -6977,10 +6977,10 @@
         <v>3365.0111816035001</v>
       </c>
       <c r="N85" s="4">
-        <v>443.2466907557</v>
+        <v>20.075363963788998</v>
       </c>
       <c r="O85" s="13" t="str">
-        <f t="shared" ref="O85:O90" si="5">LEFT(A84,2)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P85" s="4"/>
@@ -6988,12 +6988,14 @@
         <v>0</v>
       </c>
       <c r="R85" s="4">
-        <v>74760.865271400995</v>
+        <v>3385.0865455673002</v>
       </c>
       <c r="S85" s="4">
         <v>1</v>
       </c>
-      <c r="T85" s="1"/>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:20" ht="24.75" customHeight="1">
       <c r="A86" s="1" t="s">
@@ -7036,7 +7038,7 @@
         <v>589.10457278603997</v>
       </c>
       <c r="N86" s="4">
-        <v>20.075363963788998</v>
+        <v>3.5194666435220001</v>
       </c>
       <c r="O86" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7047,12 +7049,14 @@
         <v>0</v>
       </c>
       <c r="R86" s="4">
-        <v>3385.0865455673002</v>
+        <v>592.62403942955996</v>
       </c>
       <c r="S86" s="4">
         <v>1</v>
       </c>
-      <c r="T86" s="2"/>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="24.75" customHeight="1">
       <c r="A87" s="1" t="s">
@@ -7111,7 +7115,9 @@
       <c r="S87" s="4">
         <v>1</v>
       </c>
-      <c r="T87" s="20"/>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:20" ht="24.75" customHeight="1">
       <c r="A88" s="1" t="s">
@@ -7154,7 +7160,7 @@
         <v>345.29793972240998</v>
       </c>
       <c r="N88" s="4">
-        <v>3.5194666435220001</v>
+        <v>2.0653696035928002</v>
       </c>
       <c r="O88" s="13" t="str">
         <f t="shared" si="5"/>
@@ -7165,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="4">
-        <v>592.62403942955996</v>
+        <v>347.36330932599998</v>
       </c>
       <c r="S88" s="4">
         <v>1</v>
@@ -7215,18 +7221,18 @@
         <v>589.10457278603997</v>
       </c>
       <c r="N89" s="4">
-        <v>2.0653696035928002</v>
+        <v>3.5194666435220001</v>
       </c>
       <c r="O89" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P89" s="4"/>
       <c r="Q89" s="4">
         <v>0</v>
       </c>
       <c r="R89" s="4">
-        <v>347.36330932599998</v>
+        <v>592.62403942955996</v>
       </c>
       <c r="S89" s="4">
         <v>1</v>
@@ -7249,26 +7255,13 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="4">
-        <v>3.5194666435220001</v>
-      </c>
-      <c r="O90" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="13"/>
       <c r="P90" s="4"/>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4">
-        <v>592.62403942955996</v>
-      </c>
-      <c r="S90" s="4">
-        <v>1</v>
-      </c>
-      <c r="T90" s="1">
-        <v>0</v>
-      </c>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="1"/>
     </row>
     <row r="91" spans="1:20" ht="24.75" customHeight="1">
       <c r="A91" s="1" t="s">
@@ -7310,12 +7303,23 @@
       <c r="M91" s="4">
         <v>17273.227990888001</v>
       </c>
-      <c r="N91" s="4"/>
-      <c r="O91" s="13"/>
+      <c r="N91" s="4">
+        <v>103.02592457383</v>
+      </c>
+      <c r="O91" s="13" t="str">
+        <f t="shared" ref="O91:O129" si="6">LEFT(A91,2)</f>
+        <v>30</v>
+      </c>
       <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
+        <v>17376.253915461999</v>
+      </c>
+      <c r="S91" s="4">
+        <v>1</v>
+      </c>
       <c r="T91" s="1">
         <v>0</v>
       </c>
@@ -7361,10 +7365,10 @@
         <v>395.53929690967999</v>
       </c>
       <c r="N92" s="4">
-        <v>103.02592457383</v>
+        <v>2.3650161220244001</v>
       </c>
       <c r="O92" s="13" t="str">
-        <f t="shared" ref="O92:O130" si="6">LEFT(A91,2)</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="P92" s="4"/>
@@ -7372,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="R92" s="4">
-        <v>17376.253915461999</v>
+        <v>397.90431303169999</v>
       </c>
       <c r="S92" s="4">
         <v>1</v>
@@ -7499,7 +7503,9 @@
       <c r="S94" s="4">
         <v>1</v>
       </c>
-      <c r="T94" s="1"/>
+      <c r="T94" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:20" ht="24.75" customHeight="1">
       <c r="A95" s="1" t="s">
@@ -7542,7 +7548,7 @@
         <v>395.51932816675998</v>
       </c>
       <c r="N95" s="4">
-        <v>2.3650161220244001</v>
+        <v>2.3648970256338999</v>
       </c>
       <c r="O95" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7553,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="4">
-        <v>397.90431303169999</v>
+        <v>397.88422519238998</v>
       </c>
       <c r="S95" s="4">
         <v>1</v>
@@ -7603,7 +7609,7 @@
         <v>41698.188247085003</v>
       </c>
       <c r="N96" s="4">
-        <v>2.3648970256338999</v>
+        <v>248.69982180392</v>
       </c>
       <c r="O96" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7614,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="4">
-        <v>397.88422519238998</v>
+        <v>41946.888068888999</v>
       </c>
       <c r="S96" s="4">
         <v>1</v>
@@ -7664,7 +7670,7 @@
         <v>589.08463614720995</v>
       </c>
       <c r="N97" s="4">
-        <v>248.69982180392</v>
+        <v>3.5193477386049001</v>
       </c>
       <c r="O97" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7675,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="4">
-        <v>41946.888068888999</v>
+        <v>592.60398388580995</v>
       </c>
       <c r="S97" s="4">
         <v>1</v>
@@ -7725,7 +7731,7 @@
         <v>1427.7392852508001</v>
       </c>
       <c r="N98" s="4">
-        <v>3.5193477386049001</v>
+        <v>8.5212019845726008</v>
       </c>
       <c r="O98" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7736,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="4">
-        <v>592.60398388580995</v>
+        <v>1436.2604872354</v>
       </c>
       <c r="S98" s="4">
         <v>1</v>
@@ -7786,7 +7792,7 @@
         <v>1054.4057864842</v>
       </c>
       <c r="N99" s="4">
-        <v>8.5212019845726008</v>
+        <v>6.2945885055159998</v>
       </c>
       <c r="O99" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7797,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="4">
-        <v>1436.2604872354</v>
+        <v>1060.7003749897999</v>
       </c>
       <c r="S99" s="4">
         <v>1</v>
@@ -7847,7 +7853,7 @@
         <v>13206.066267484</v>
       </c>
       <c r="N100" s="4">
-        <v>6.2945885055159998</v>
+        <v>78.768800193738997</v>
       </c>
       <c r="O100" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7858,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="4">
-        <v>1060.7003749897999</v>
+        <v>13284.835067677999</v>
       </c>
       <c r="S100" s="4">
         <v>1</v>
@@ -7908,7 +7914,7 @@
         <v>25769.418340363001</v>
       </c>
       <c r="N101" s="4">
-        <v>78.768800193738997</v>
+        <v>153.69839842165999</v>
       </c>
       <c r="O101" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7919,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="4">
-        <v>13284.835067677999</v>
+        <v>25923.116738784</v>
       </c>
       <c r="S101" s="4">
         <v>1</v>
@@ -7969,7 +7975,7 @@
         <v>437.82535732942</v>
       </c>
       <c r="N102" s="4">
-        <v>153.69839842165999</v>
+        <v>2.6172161319830001</v>
       </c>
       <c r="O102" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7980,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="R102" s="4">
-        <v>25923.116738784</v>
+        <v>440.4425734614</v>
       </c>
       <c r="S102" s="4">
         <v>1</v>
@@ -8030,7 +8036,7 @@
         <v>82627.101458271005</v>
       </c>
       <c r="N103" s="4">
-        <v>2.6172161319830001</v>
+        <v>492.80561498949999</v>
       </c>
       <c r="O103" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8041,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="R103" s="4">
-        <v>440.4425734614</v>
+        <v>83119.907073260998</v>
       </c>
       <c r="S103" s="4">
         <v>1</v>
@@ -8091,7 +8097,7 @@
         <v>2280.7467736149001</v>
       </c>
       <c r="N104" s="4">
-        <v>492.80561498949999</v>
+        <v>13.608658581965001</v>
       </c>
       <c r="O104" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8102,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="R104" s="4">
-        <v>83119.907073260998</v>
+        <v>2294.3554321967999</v>
       </c>
       <c r="S104" s="4">
         <v>1</v>
@@ -8213,7 +8219,7 @@
         <v>14184.015372645001</v>
       </c>
       <c r="N106" s="4">
-        <v>13.608658581965001</v>
+        <v>84.601426161077995</v>
       </c>
       <c r="O106" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8224,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="R106" s="4">
-        <v>2294.3554321967999</v>
+        <v>14268.616798806999</v>
       </c>
       <c r="S106" s="4">
         <v>1</v>
@@ -8335,7 +8341,7 @@
         <v>18635.311645369999</v>
       </c>
       <c r="N108" s="4">
-        <v>84.601426161077995</v>
+        <v>111.1495830044</v>
       </c>
       <c r="O108" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8346,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="R108" s="4">
-        <v>14268.616798806999</v>
+        <v>18746.461228373999</v>
       </c>
       <c r="S108" s="4">
         <v>1</v>
@@ -8396,7 +8402,7 @@
         <v>2317.9102090961001</v>
       </c>
       <c r="N109" s="4">
-        <v>111.1495830044</v>
+        <v>13.830306536526001</v>
       </c>
       <c r="O109" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8407,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="R109" s="4">
-        <v>18746.461228373999</v>
+        <v>2331.7405156325999</v>
       </c>
       <c r="S109" s="4">
         <v>1</v>
@@ -8457,7 +8463,7 @@
         <v>65151.270691744998</v>
       </c>
       <c r="N110" s="4">
-        <v>13.830306536526001</v>
+        <v>388.57730311547999</v>
       </c>
       <c r="O110" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8468,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R110" s="4">
-        <v>2331.7405156325999</v>
+        <v>65539.84799486</v>
       </c>
       <c r="S110" s="4">
         <v>1</v>
@@ -8518,7 +8524,7 @@
         <v>18661.282070152</v>
       </c>
       <c r="N111" s="4">
-        <v>388.57730311547999</v>
+        <v>111.30447426937</v>
       </c>
       <c r="O111" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8529,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="R111" s="4">
-        <v>65539.84799486</v>
+        <v>18772.586544420999</v>
       </c>
       <c r="S111" s="4">
         <v>1</v>
@@ -8579,7 +8585,7 @@
         <v>2702.3284790532002</v>
       </c>
       <c r="N112" s="4">
-        <v>111.30447426937</v>
+        <v>16.123031149532</v>
       </c>
       <c r="O112" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8590,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="R112" s="4">
-        <v>18772.586544420999</v>
+        <v>2718.4515102026999</v>
       </c>
       <c r="S112" s="4">
         <v>1</v>
@@ -8884,7 +8890,7 @@
         <v>419.68414448136002</v>
       </c>
       <c r="N117" s="4">
-        <v>16.123031149532</v>
+        <v>2.5090193878189</v>
       </c>
       <c r="O117" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8895,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="R117" s="4">
-        <v>2718.4515102026999</v>
+        <v>422.19316386918001</v>
       </c>
       <c r="S117" s="4">
         <v>1</v>
@@ -8945,7 +8951,7 @@
         <v>1810.5040044320001</v>
       </c>
       <c r="N118" s="4">
-        <v>2.5090193878189</v>
+        <v>10.804064588255001</v>
       </c>
       <c r="O118" s="13" t="str">
         <f t="shared" si="6"/>
@@ -8956,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="R118" s="4">
-        <v>422.19316386918001</v>
+        <v>1821.3080690202</v>
       </c>
       <c r="S118" s="4">
         <v>1</v>
@@ -9311,7 +9317,7 @@
         <v>461.17095618565997</v>
       </c>
       <c r="N124" s="4">
-        <v>10.804064588255001</v>
+        <v>2.7504884254558002</v>
       </c>
       <c r="O124" s="13" t="str">
         <f t="shared" si="6"/>
@@ -9319,16 +9325,16 @@
       </c>
       <c r="P124" s="4"/>
       <c r="Q124" s="4">
-        <v>0</v>
+        <v>5.1546827179013004</v>
       </c>
       <c r="R124" s="4">
-        <v>1821.3080690202</v>
+        <v>469.07612732901998</v>
       </c>
       <c r="S124" s="4">
-        <v>1</v>
+        <v>25.773413589505999</v>
       </c>
       <c r="T124" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="24.75" customHeight="1">
@@ -9372,7 +9378,7 @@
         <v>461.15653242322998</v>
       </c>
       <c r="N125" s="4">
-        <v>2.7504884254558002</v>
+        <v>2.7504024001087002</v>
       </c>
       <c r="O125" s="13" t="str">
         <f t="shared" si="6"/>
@@ -9380,16 +9386,16 @@
       </c>
       <c r="P125" s="4"/>
       <c r="Q125" s="4">
-        <v>5.1546827179013004</v>
+        <v>5.1545214980371004</v>
       </c>
       <c r="R125" s="4">
-        <v>469.07612732901998</v>
+        <v>469.06145632137998</v>
       </c>
       <c r="S125" s="4">
-        <v>25.773413589505999</v>
+        <v>25.772607490186001</v>
       </c>
       <c r="T125" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="24.75" customHeight="1">
@@ -9433,7 +9439,7 @@
         <v>878.46657972005005</v>
       </c>
       <c r="N126" s="4">
-        <v>2.7504024001087002</v>
+        <v>5.2392981979054003</v>
       </c>
       <c r="O126" s="13" t="str">
         <f t="shared" si="6"/>
@@ -9441,16 +9447,16 @@
       </c>
       <c r="P126" s="4"/>
       <c r="Q126" s="4">
-        <v>5.1545214980371004</v>
+        <v>16.067379598508001</v>
       </c>
       <c r="R126" s="4">
-        <v>469.06145632137998</v>
+        <v>899.77325751647004</v>
       </c>
       <c r="S126" s="4">
-        <v>25.772607490186001</v>
+        <v>642.69518394033003</v>
       </c>
       <c r="T126" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="24.75" customHeight="1">
@@ -9494,7 +9500,7 @@
         <v>1170.3965558713001</v>
       </c>
       <c r="N127" s="4">
-        <v>5.2392981979054003</v>
+        <v>6.9804096223730996</v>
       </c>
       <c r="O127" s="13" t="str">
         <f t="shared" si="6"/>
@@ -9502,16 +9508,16 @@
       </c>
       <c r="P127" s="4"/>
       <c r="Q127" s="4">
-        <v>16.067379598508001</v>
+        <v>21.803277138771001</v>
       </c>
       <c r="R127" s="4">
-        <v>899.77325751647004</v>
+        <v>1199.1802426324</v>
       </c>
       <c r="S127" s="4">
-        <v>642.69518394033003</v>
+        <v>893.93436268963001</v>
       </c>
       <c r="T127" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="24.75" customHeight="1">
@@ -9555,7 +9561,7 @@
         <v>260.52286967316002</v>
       </c>
       <c r="N128" s="4">
-        <v>6.9804096223730996</v>
+        <v>1.5537950254484001</v>
       </c>
       <c r="O128" s="13" t="str">
         <f t="shared" si="6"/>
@@ -9563,16 +9569,16 @@
       </c>
       <c r="P128" s="4"/>
       <c r="Q128" s="4">
-        <v>21.803277138771001</v>
+        <v>5.0399358595886001</v>
       </c>
       <c r="R128" s="4">
-        <v>1199.1802426324</v>
+        <v>267.11660055819999</v>
       </c>
       <c r="S128" s="4">
-        <v>893.93436268963001</v>
+        <v>216.71724196231</v>
       </c>
       <c r="T128" s="1">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="24.75" customHeight="1">
@@ -9616,7 +9622,7 @@
         <v>1882.7375834346001</v>
       </c>
       <c r="N129" s="4">
-        <v>1.5537950254484001</v>
+        <v>11.228911669197</v>
       </c>
       <c r="O129" s="13" t="str">
         <f t="shared" si="6"/>
@@ -9624,16 +9630,16 @@
       </c>
       <c r="P129" s="4"/>
       <c r="Q129" s="4">
-        <v>5.0399358595886001</v>
+        <v>54.113328431536999</v>
       </c>
       <c r="R129" s="4">
-        <v>267.11660055819999</v>
+        <v>1948.0798235353</v>
       </c>
       <c r="S129" s="4">
-        <v>216.71724196231</v>
+        <v>3246.7997058922001</v>
       </c>
       <c r="T129" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="24.75" customHeight="1">
@@ -9650,26 +9656,16 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
-      <c r="N130" s="4">
-        <v>11.228911669197</v>
-      </c>
-      <c r="O130" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4">
-        <v>54.113328431536999</v>
-      </c>
-      <c r="R130" s="4">
-        <v>1948.0798235353</v>
-      </c>
-      <c r="S130" s="4">
-        <v>3246.7997058922001</v>
-      </c>
-      <c r="T130" s="1">
-        <v>40</v>
-      </c>
+      <c r="N130" s="4"/>
+      <c r="O130" s="13"/>
+      <c r="P130" s="4">
+        <f>SUM(Q91:Q129)</f>
+        <v>107.33312524434299</v>
+      </c>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" ht="24.75" customHeight="1">
       <c r="A131" s="1" t="s">
@@ -9711,17 +9707,25 @@
       <c r="M131" s="4">
         <v>4627.8149818503998</v>
       </c>
-      <c r="N131" s="4"/>
-      <c r="O131" s="13"/>
-      <c r="P131" s="4">
-        <f>SUM(Q92:Q130)</f>
-        <v>107.33312524434299</v>
-      </c>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
+      <c r="N131" s="4">
+        <v>27.606903384502001</v>
+      </c>
+      <c r="O131" s="13" t="str">
+        <f>LEFT(A131,2)</f>
+        <v>40</v>
+      </c>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4">
+        <v>0</v>
+      </c>
+      <c r="R131" s="4">
+        <v>4655.4218852349004</v>
+      </c>
+      <c r="S131" s="4">
+        <v>1</v>
+      </c>
       <c r="T131" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="24.75" customHeight="1">
@@ -9765,10 +9769,10 @@
         <v>1362.4069197986</v>
       </c>
       <c r="N132" s="4">
-        <v>27.606903384502001</v>
+        <v>8.1315505709836007</v>
       </c>
       <c r="O132" s="13" t="str">
-        <f>LEFT(A131,2)</f>
+        <f>LEFT(A132,2)</f>
         <v>40</v>
       </c>
       <c r="P132" s="4"/>
@@ -9776,13 +9780,13 @@
         <v>0</v>
       </c>
       <c r="R132" s="4">
-        <v>4655.4218852349004</v>
+        <v>1370.5384703696</v>
       </c>
       <c r="S132" s="4">
         <v>1</v>
       </c>
       <c r="T132" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="24.75" customHeight="1">
@@ -9811,26 +9815,24 @@
       <c r="M133" s="5">
         <v>3572532.1114526</v>
       </c>
-      <c r="N133" s="4">
-        <v>8.1315505709836007</v>
-      </c>
-      <c r="O133" s="13" t="str">
-        <f>LEFT(A132,2)</f>
-        <v>40</v>
-      </c>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4">
-        <v>0</v>
-      </c>
-      <c r="R133" s="4">
-        <v>1370.5384703696</v>
-      </c>
-      <c r="S133" s="4">
-        <v>1</v>
-      </c>
-      <c r="T133" s="1">
-        <v>60</v>
-      </c>
+      <c r="N133" s="5">
+        <v>4628.7447263652002</v>
+      </c>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q133" s="5">
+        <v>9202.4381126304997</v>
+      </c>
+      <c r="R133" s="5">
+        <v>789924.02517775004</v>
+      </c>
+      <c r="S133" s="11">
+        <v>27610.314337890999</v>
+      </c>
+      <c r="T133" s="2"/>
     </row>
     <row r="134" spans="1:20" ht="24.75" customHeight="1">
       <c r="A134" s="18" t="s">
@@ -9848,24 +9850,13 @@
       <c r="K134" s="19"/>
       <c r="L134" s="19"/>
       <c r="M134" s="19"/>
-      <c r="N134" s="5">
-        <v>4628.7447263652002</v>
-      </c>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q134" s="5">
-        <v>9202.4381126304997</v>
-      </c>
-      <c r="R134" s="5">
-        <v>789924.02517775004</v>
-      </c>
-      <c r="S134" s="11">
-        <v>27610.314337890999</v>
-      </c>
-      <c r="T134" s="1"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="20"/>
     </row>
     <row r="135" spans="1:20" ht="24.75" customHeight="1">
       <c r="A135" s="1" t="s">
@@ -9907,12 +9898,23 @@
       <c r="M135" s="4">
         <v>171.83224410522999</v>
       </c>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
-      <c r="S135" s="19"/>
+      <c r="N135" s="4">
+        <v>1.0307958048546</v>
+      </c>
+      <c r="O135" s="13" t="str">
+        <f>LEFT(A135,2)</f>
+        <v>30</v>
+      </c>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4">
+        <v>0</v>
+      </c>
+      <c r="R135" s="4">
+        <v>172.86303991008</v>
+      </c>
+      <c r="S135" s="1">
+        <v>1</v>
+      </c>
       <c r="T135" s="1">
         <v>0</v>
       </c>
@@ -9958,10 +9960,10 @@
         <v>341.51906010191999</v>
       </c>
       <c r="N136" s="4">
-        <v>1.0307958048546</v>
+        <v>2.0428318342084002</v>
       </c>
       <c r="O136" s="13" t="str">
-        <f>LEFT(A135,2)</f>
+        <f>LEFT(A136,2)</f>
         <v>30</v>
       </c>
       <c r="P136" s="4"/>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="R136" s="4">
-        <v>172.86303991008</v>
+        <v>343.56189193613</v>
       </c>
       <c r="S136" s="1">
         <v>1</v>
@@ -10019,10 +10021,10 @@
         <v>154.03200385068001</v>
       </c>
       <c r="N137" s="4">
-        <v>2.0428318342084002</v>
+        <v>0.92463266918062004</v>
       </c>
       <c r="O137" s="13" t="str">
-        <f>LEFT(A136,2)</f>
+        <f>LEFT(A137,2)</f>
         <v>30</v>
       </c>
       <c r="P137" s="4"/>
@@ -10030,12 +10032,14 @@
         <v>0</v>
       </c>
       <c r="R137" s="4">
-        <v>343.56189193613</v>
+        <v>154.95663651986001</v>
       </c>
       <c r="S137" s="1">
         <v>1</v>
       </c>
-      <c r="T137" s="2"/>
+      <c r="T137" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:20" ht="24.75" customHeight="1">
       <c r="A138" s="1" t="s">
@@ -10078,10 +10082,10 @@
         <v>11434.819632618</v>
       </c>
       <c r="N138" s="4">
-        <v>0.92463266918062004</v>
+        <v>68.204836217945001</v>
       </c>
       <c r="O138" s="13" t="str">
-        <f>LEFT(A137,2)</f>
+        <f>LEFT(A138,2)</f>
         <v>30</v>
       </c>
       <c r="P138" s="4"/>
@@ -10089,12 +10093,14 @@
         <v>0</v>
       </c>
       <c r="R138" s="4">
-        <v>154.95663651986001</v>
+        <v>11503.024468836</v>
       </c>
       <c r="S138" s="1">
         <v>1</v>
       </c>
-      <c r="T138" s="20"/>
+      <c r="T138" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:20" ht="24.75" customHeight="1">
       <c r="A139" s="1" t="s">
@@ -10137,10 +10143,10 @@
         <v>1047.2126175476999</v>
       </c>
       <c r="N139" s="4">
-        <v>68.204836217945001</v>
+        <v>6.2516874345857998</v>
       </c>
       <c r="O139" s="13" t="str">
-        <f>LEFT(A138,2)</f>
+        <f>LEFT(A139,2)</f>
         <v>30</v>
       </c>
       <c r="P139" s="4"/>
@@ -10148,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="4">
-        <v>11503.024468836</v>
+        <v>1053.4643049823001</v>
       </c>
       <c r="S139" s="1">
         <v>1</v>
@@ -10183,26 +10189,24 @@
       <c r="M140" s="5">
         <v>17775.698549657998</v>
       </c>
-      <c r="N140" s="4">
-        <v>6.2516874345857998</v>
-      </c>
-      <c r="O140" s="13" t="str">
-        <f>LEFT(A139,2)</f>
-        <v>30</v>
-      </c>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4">
-        <v>0</v>
-      </c>
-      <c r="R140" s="4">
-        <v>1053.4643049823001</v>
-      </c>
-      <c r="S140" s="1">
-        <v>1</v>
-      </c>
-      <c r="T140" s="1">
-        <v>0</v>
-      </c>
+      <c r="N140" s="5">
+        <v>106.05851447964</v>
+      </c>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5">
+        <f>SUM(P135:P139)</f>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="5">
+        <v>0</v>
+      </c>
+      <c r="R140" s="5">
+        <v>17881.757064138001</v>
+      </c>
+      <c r="S140" s="12">
+        <v>7</v>
+      </c>
+      <c r="T140" s="2"/>
     </row>
     <row r="141" spans="1:20" ht="24.75" customHeight="1">
       <c r="A141" s="18" t="s">
@@ -10220,26 +10224,13 @@
       <c r="K141" s="19"/>
       <c r="L141" s="19"/>
       <c r="M141" s="19"/>
-      <c r="N141" s="5">
-        <v>106.05851447964</v>
-      </c>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5">
-        <f>SUM(P136:P140)</f>
-        <v>0</v>
-      </c>
-      <c r="Q141" s="5">
-        <v>0</v>
-      </c>
-      <c r="R141" s="5">
-        <v>17881.757064138001</v>
-      </c>
-      <c r="S141" s="12">
-        <v>7</v>
-      </c>
-      <c r="T141" s="1">
-        <v>0</v>
-      </c>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="20"/>
     </row>
     <row r="142" spans="1:20" ht="24.75" customHeight="1">
       <c r="A142" s="1" t="s">
@@ -10281,12 +10272,23 @@
       <c r="M142" s="4">
         <v>16821.022046009999</v>
       </c>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
+      <c r="N142" s="4">
+        <v>100.32890473633999</v>
+      </c>
+      <c r="O142" s="13" t="str">
+        <f>LEFT(A142,2)</f>
+        <v>10</v>
+      </c>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4">
+        <v>0</v>
+      </c>
+      <c r="R142" s="4">
+        <v>16921.350950747001</v>
+      </c>
+      <c r="S142" s="4">
+        <v>1</v>
+      </c>
       <c r="T142" s="1">
         <v>0</v>
       </c>
@@ -10332,10 +10334,10 @@
         <v>5188.6926862131004</v>
       </c>
       <c r="N143" s="4">
-        <v>100.32890473633999</v>
+        <v>30.952056875315002</v>
       </c>
       <c r="O143" s="13" t="str">
-        <f>LEFT(A142,2)</f>
+        <f>LEFT(A143,2)</f>
         <v>10</v>
       </c>
       <c r="P143" s="4"/>
@@ -10343,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="R143" s="4">
-        <v>16921.350950747001</v>
+        <v>5219.6447430884</v>
       </c>
       <c r="S143" s="4">
         <v>1</v>
@@ -10366,24 +10368,16 @@
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
-      <c r="N144" s="4">
-        <v>30.952056875315002</v>
-      </c>
-      <c r="O144" s="13" t="str">
-        <f>LEFT(A143,2)</f>
-        <v>10</v>
-      </c>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4">
-        <v>0</v>
-      </c>
-      <c r="R144" s="4">
-        <v>5219.6447430884</v>
-      </c>
-      <c r="S144" s="4">
-        <v>1</v>
-      </c>
-      <c r="T144" s="2"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="4">
+        <f>SUM(Q142:Q143)</f>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="1"/>
     </row>
     <row r="145" spans="1:20" ht="24.75" customHeight="1">
       <c r="A145" s="1" t="s">
@@ -10425,16 +10419,26 @@
       <c r="M145" s="4">
         <v>1239.0589353455</v>
       </c>
-      <c r="N145" s="4"/>
-      <c r="O145" s="13"/>
-      <c r="P145" s="4">
-        <f>SUM(Q143:Q144)</f>
-        <v>0</v>
-      </c>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="20"/>
+      <c r="N145" s="4">
+        <v>7.3958858484093</v>
+      </c>
+      <c r="O145" s="13" t="str">
+        <f t="shared" ref="O145:O154" si="7">LEFT(A145,2)</f>
+        <v>20</v>
+      </c>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4">
+        <v>0</v>
+      </c>
+      <c r="R145" s="4">
+        <v>1246.4548211939</v>
+      </c>
+      <c r="S145" s="4">
+        <v>1</v>
+      </c>
+      <c r="T145" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:20" ht="24.75" customHeight="1">
       <c r="A146" s="1" t="s">
@@ -10477,10 +10481,10 @@
         <v>12379.459951774001</v>
       </c>
       <c r="N146" s="4">
-        <v>7.3958858484093</v>
+        <v>73.838803902180999</v>
       </c>
       <c r="O146" s="13" t="str">
-        <f t="shared" ref="O146:O155" si="7">LEFT(A145,2)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="P146" s="4"/>
@@ -10488,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="R146" s="4">
-        <v>1246.4548211939</v>
+        <v>12453.298755676</v>
       </c>
       <c r="S146" s="4">
         <v>1</v>
@@ -10538,7 +10542,7 @@
         <v>4760.1359685629996</v>
       </c>
       <c r="N147" s="4">
-        <v>73.838803902180999</v>
+        <v>28.396084354197999</v>
       </c>
       <c r="O147" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10549,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="R147" s="4">
-        <v>12453.298755676</v>
+        <v>4788.5320529172004</v>
       </c>
       <c r="S147" s="4">
         <v>1</v>
@@ -10599,23 +10603,25 @@
         <v>11938.538152933999</v>
       </c>
       <c r="N148" s="4">
-        <v>28.396084354197999</v>
-      </c>
-      <c r="O148" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <v>3.2821437176441002</v>
+      </c>
+      <c r="O148" s="13" t="e">
+        <f>LEFT(#REF!,2)</f>
+        <v>#REF!</v>
       </c>
       <c r="P148" s="4"/>
       <c r="Q148" s="4">
         <v>0</v>
       </c>
       <c r="R148" s="4">
-        <v>4788.5320529172004</v>
+        <v>552.59507817536996</v>
       </c>
       <c r="S148" s="4">
         <v>1</v>
       </c>
-      <c r="T148" s="1"/>
+      <c r="T148" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:20" ht="24.75" customHeight="1">
       <c r="A149" s="1" t="s">
@@ -10658,24 +10664,24 @@
         <v>2783.0937158841002</v>
       </c>
       <c r="N149" s="4">
-        <v>3.2821437176441002</v>
-      </c>
-      <c r="O149" s="13" t="e">
-        <f>LEFT(#REF!,2)</f>
-        <v>#REF!</v>
+        <v>16.598762237351998</v>
+      </c>
+      <c r="O149" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="P149" s="4"/>
       <c r="Q149" s="4">
-        <v>0</v>
+        <v>87.490389941293998</v>
       </c>
       <c r="R149" s="4">
-        <v>552.59507817536996</v>
+        <v>2887.1828680627</v>
       </c>
       <c r="S149" s="4">
-        <v>1</v>
+        <v>1312.3558491194001</v>
       </c>
       <c r="T149" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="24.75" customHeight="1">
@@ -10719,7 +10725,7 @@
         <v>386.47742416365998</v>
       </c>
       <c r="N150" s="4">
-        <v>16.598762237351998</v>
+        <v>2.3050056982213998</v>
       </c>
       <c r="O150" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10727,16 +10733,16 @@
       </c>
       <c r="P150" s="4"/>
       <c r="Q150" s="4">
-        <v>87.490389941293998</v>
+        <v>16.903583907038001</v>
       </c>
       <c r="R150" s="4">
-        <v>2887.1828680627</v>
+        <v>405.68601376892002</v>
       </c>
       <c r="S150" s="4">
-        <v>1312.3558491194001</v>
+        <v>405.68601376892002</v>
       </c>
       <c r="T150" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="24.75" customHeight="1">
@@ -10780,7 +10786,7 @@
         <v>1649.1877051372001</v>
       </c>
       <c r="N151" s="4">
-        <v>2.3050056982213998</v>
+        <v>9.8359873568400005</v>
       </c>
       <c r="O151" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10788,16 +10794,16 @@
       </c>
       <c r="P151" s="4"/>
       <c r="Q151" s="4">
-        <v>16.903583907038001</v>
+        <v>79.001128214000005</v>
       </c>
       <c r="R151" s="4">
-        <v>405.68601376892002</v>
+        <v>1738.0248207080001</v>
       </c>
       <c r="S151" s="4">
-        <v>405.68601376892002</v>
+        <v>2054.0293335639999</v>
       </c>
       <c r="T151" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:20" ht="24.75" customHeight="1">
@@ -10841,7 +10847,7 @@
         <v>1085.2573913081001</v>
       </c>
       <c r="N152" s="4">
-        <v>9.8359873568400005</v>
+        <v>6.4726276739589004</v>
       </c>
       <c r="O152" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10849,16 +10855,16 @@
       </c>
       <c r="P152" s="4"/>
       <c r="Q152" s="4">
-        <v>79.001128214000005</v>
+        <v>51.987143761051001</v>
       </c>
       <c r="R152" s="4">
-        <v>1738.0248207080001</v>
+        <v>1143.7171627431001</v>
       </c>
       <c r="S152" s="4">
-        <v>2054.0293335639999</v>
+        <v>1351.6657377873</v>
       </c>
       <c r="T152" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="24.75" customHeight="1">
@@ -10902,21 +10908,21 @@
         <v>2783.0937158841002</v>
       </c>
       <c r="N153" s="4">
-        <v>6.4726276739589004</v>
+        <v>16.598762237351998</v>
       </c>
       <c r="O153" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P153" s="4"/>
       <c r="Q153" s="4">
-        <v>51.987143761051001</v>
+        <v>87.490389941293998</v>
       </c>
       <c r="R153" s="4">
-        <v>1143.7171627431001</v>
+        <v>2887.1828680627</v>
       </c>
       <c r="S153" s="4">
-        <v>1351.6657377873</v>
+        <v>1312.3558491194001</v>
       </c>
       <c r="T153" s="1">
         <v>15</v>
@@ -10963,7 +10969,7 @@
         <v>3570.3798608983002</v>
       </c>
       <c r="N154" s="4">
-        <v>16.598762237351998</v>
+        <v>21.294247502282001</v>
       </c>
       <c r="O154" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10971,16 +10977,16 @@
       </c>
       <c r="P154" s="4"/>
       <c r="Q154" s="4">
-        <v>87.490389941293998</v>
+        <v>112.23981588752</v>
       </c>
       <c r="R154" s="4">
-        <v>2887.1828680627</v>
+        <v>3703.9139242881001</v>
       </c>
       <c r="S154" s="4">
-        <v>1312.3558491194001</v>
+        <v>1683.5972383128001</v>
       </c>
       <c r="T154" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="24.75" customHeight="1">
@@ -10997,25 +11003,17 @@
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
-      <c r="N155" s="4">
-        <v>21.294247502282001</v>
-      </c>
-      <c r="O155" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4">
-        <v>112.23981588752</v>
-      </c>
-      <c r="R155" s="4">
-        <v>3703.9139242881001</v>
-      </c>
-      <c r="S155" s="4">
-        <v>1683.5972383128001</v>
-      </c>
+      <c r="N155" s="4"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="4">
+        <f>SUM(Q145:Q154)</f>
+        <v>435.11245165219702</v>
+      </c>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
       <c r="T155" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="24.75" customHeight="1">
@@ -11058,18 +11056,24 @@
       <c r="M156" s="4">
         <v>189527.57055860001</v>
       </c>
-      <c r="N156" s="4"/>
-      <c r="O156" s="13"/>
-      <c r="P156" s="4">
-        <f>SUM(Q146:Q155)</f>
-        <v>435.11245165219702</v>
-      </c>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="T156" s="1">
-        <v>26</v>
-      </c>
+      <c r="N156" s="4">
+        <v>1130.3750434031001</v>
+      </c>
+      <c r="O156" s="13" t="str">
+        <f>LEFT(A156,2)</f>
+        <v>30</v>
+      </c>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4">
+        <v>0</v>
+      </c>
+      <c r="R156" s="4">
+        <v>190657.94560199999</v>
+      </c>
+      <c r="S156" s="4">
+        <v>1</v>
+      </c>
+      <c r="T156" s="2"/>
     </row>
     <row r="157" spans="1:20" ht="24.75" customHeight="1">
       <c r="A157" s="2"/>
@@ -11097,26 +11101,24 @@
       <c r="M157" s="5">
         <v>456832.59371271002</v>
       </c>
-      <c r="N157" s="4">
-        <v>1130.3750434031001</v>
-      </c>
-      <c r="O157" s="13" t="str">
-        <f>LEFT(A156,2)</f>
-        <v>30</v>
-      </c>
-      <c r="P157" s="4"/>
-      <c r="Q157" s="4">
-        <v>0</v>
-      </c>
-      <c r="R157" s="4">
-        <v>190657.94560199999</v>
-      </c>
-      <c r="S157" s="4">
-        <v>1</v>
-      </c>
-      <c r="T157" s="1">
-        <v>15</v>
-      </c>
+      <c r="N157" s="5">
+        <v>2724.7569610478999</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5">
+        <f>SUM(P142:P156)</f>
+        <v>435.11245165219702</v>
+      </c>
+      <c r="Q157" s="5">
+        <v>1995.8373265974999</v>
+      </c>
+      <c r="R157" s="5">
+        <v>461553.18800035998</v>
+      </c>
+      <c r="S157" s="11">
+        <v>25054.718769042</v>
+      </c>
+      <c r="T157" s="20"/>
     </row>
     <row r="158" spans="1:20" ht="24.75" customHeight="1">
       <c r="A158" s="18" t="s">
@@ -11134,25 +11136,25 @@
       <c r="K158" s="19"/>
       <c r="L158" s="19"/>
       <c r="M158" s="19"/>
-      <c r="N158" s="5">
-        <v>2724.7569610478999</v>
-      </c>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5">
-        <f>SUM(P143:P157)</f>
-        <v>435.11245165219702</v>
-      </c>
-      <c r="Q158" s="5">
-        <v>1995.8373265974999</v>
-      </c>
-      <c r="R158" s="5">
-        <v>461553.18800035998</v>
-      </c>
-      <c r="S158" s="11">
-        <v>25054.718769042</v>
+      <c r="N158" s="4">
+        <v>54.692632653026998</v>
+      </c>
+      <c r="O158" s="13" t="e">
+        <f>LEFT(#REF!,2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4">
+        <v>0</v>
+      </c>
+      <c r="R158" s="4">
+        <v>9223.9379837952001</v>
+      </c>
+      <c r="S158" s="4">
+        <v>1</v>
       </c>
       <c r="T158" s="1">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="24.75" customHeight="1">
@@ -11196,24 +11198,24 @@
         <v>157.81840297152999</v>
       </c>
       <c r="N159" s="4">
-        <v>54.692632653026998</v>
-      </c>
-      <c r="O159" s="13" t="e">
-        <f>LEFT(#REF!,2)</f>
-        <v>#REF!</v>
+        <v>0.94125114531791998</v>
+      </c>
+      <c r="O159" s="13" t="str">
+        <f>LEFT(A159,2)</f>
+        <v>01</v>
       </c>
       <c r="P159" s="4"/>
       <c r="Q159" s="4">
-        <v>0</v>
+        <v>5.4744708316153998</v>
       </c>
       <c r="R159" s="4">
-        <v>9223.9379837952001</v>
+        <v>164.23412494845999</v>
       </c>
       <c r="S159" s="4">
-        <v>1</v>
+        <v>361.31507488660998</v>
       </c>
       <c r="T159" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="24.75" customHeight="1">
@@ -11260,7 +11262,7 @@
         <v>0.94125114531791998</v>
       </c>
       <c r="O160" s="13" t="str">
-        <f>LEFT(A159,2)</f>
+        <f>LEFT(A160,2)</f>
         <v>01</v>
       </c>
       <c r="P160" s="4"/>
@@ -11273,9 +11275,9 @@
       <c r="S160" s="4">
         <v>361.31507488660998</v>
       </c>
-      <c r="T160" s="2"/>
-    </row>
-    <row r="161" spans="1:20" ht="24.75" customHeight="1">
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161" spans="1:19" ht="24.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -11289,26 +11291,25 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
-      <c r="N161" s="4">
-        <v>0.94125114531791998</v>
-      </c>
-      <c r="O161" s="13" t="str">
-        <f>LEFT(A160,2)</f>
-        <v>01</v>
-      </c>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4">
-        <v>5.4744708316153998</v>
-      </c>
-      <c r="R161" s="4">
-        <v>164.23412494845999</v>
-      </c>
-      <c r="S161" s="4">
-        <v>361.31507488660998</v>
-      </c>
-      <c r="T161" s="20"/>
-    </row>
-    <row r="162" spans="1:20" ht="24.75" customHeight="1">
+      <c r="N161" s="5">
+        <v>278.93034427571001</v>
+      </c>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q161" s="5">
+        <v>287.99165816862001</v>
+      </c>
+      <c r="R161" s="5">
+        <v>47334.824164222002</v>
+      </c>
+      <c r="S161" s="11">
+        <v>21783.173796245999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="24.75" customHeight="1">
       <c r="A162" s="18" t="s">
         <v>334</v>
       </c>
@@ -11324,28 +11325,14 @@
       <c r="K162" s="19"/>
       <c r="L162" s="19"/>
       <c r="M162" s="19"/>
-      <c r="N162" s="5">
-        <v>278.93034427571001</v>
-      </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q162" s="5">
-        <v>287.99165816862001</v>
-      </c>
-      <c r="R162" s="5">
-        <v>47334.824164222002</v>
-      </c>
-      <c r="S162" s="11">
-        <v>21783.173796245999</v>
-      </c>
-      <c r="T162" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" ht="24.75" customHeight="1">
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+    </row>
+    <row r="163" spans="1:19" ht="24.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>335</v>
       </c>
@@ -11385,17 +11372,25 @@
       <c r="M163" s="4">
         <v>110879.26140204001</v>
       </c>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="19"/>
-      <c r="T163" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" ht="24.75" customHeight="1">
+      <c r="N163" s="4">
+        <v>661.30546927820001</v>
+      </c>
+      <c r="O163" s="13" t="str">
+        <f t="shared" ref="O163" si="8">LEFT(A163,2)</f>
+        <v>01</v>
+      </c>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4">
+        <v>0</v>
+      </c>
+      <c r="R163" s="4">
+        <v>111540.56687132</v>
+      </c>
+      <c r="S163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="24.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11421,70 +11416,52 @@
       <c r="M164" s="5">
         <v>110879.26140204001</v>
       </c>
-      <c r="N164" s="4">
-        <v>661.30546927820001</v>
-      </c>
-      <c r="O164" s="13" t="str">
-        <f t="shared" ref="O164" si="8">LEFT(A163,2)</f>
-        <v>01</v>
-      </c>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4">
-        <v>0</v>
-      </c>
-      <c r="R164" s="4">
-        <v>111540.56687132</v>
-      </c>
-      <c r="S164" s="4">
-        <v>1</v>
-      </c>
-      <c r="T164" s="1"/>
-    </row>
-    <row r="165" spans="1:20" ht="24.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:19" ht="24.75" customHeight="1">
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:20" ht="24.75" customHeight="1">
+    <row r="166" spans="1:19" ht="24.75" customHeight="1">
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:20" ht="24.75" customHeight="1">
+    <row r="167" spans="1:19" ht="24.75" customHeight="1">
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:20" ht="24.75" customHeight="1">
+    <row r="168" spans="1:19" ht="24.75" customHeight="1">
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:20" ht="24.75" customHeight="1">
+    <row r="169" spans="1:19" ht="24.75" customHeight="1">
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:20" ht="24.75" customHeight="1">
+    <row r="170" spans="1:19" ht="24.75" customHeight="1">
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:20" ht="24.75" customHeight="1">
+    <row r="171" spans="1:19" ht="24.75" customHeight="1">
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:20" ht="24.75" customHeight="1">
+    <row r="172" spans="1:19" ht="24.75" customHeight="1">
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:20" ht="24.75" customHeight="1">
+    <row r="173" spans="1:19" ht="24.75" customHeight="1">
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:20" ht="24.75" customHeight="1">
+    <row r="174" spans="1:19" ht="24.75" customHeight="1">
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:20" ht="24.75" customHeight="1">
+    <row r="175" spans="1:19" ht="24.75" customHeight="1">
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:20" ht="24.75" customHeight="1">
+    <row r="176" spans="1:19" ht="24.75" customHeight="1">
       <c r="G176"/>
       <c r="H176"/>
     </row>
